--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -16,8 +16,7 @@
     <t>vatest9@mailinator.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Aaaa1234!
-</t>
+    <t>!Aaaa1234</t>
   </si>
 </sst>
 </file>
